--- a/DateBase/orders/Nha Thu_2024-10-15.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-15.xlsx
@@ -526,6 +526,9 @@
       <c r="C11" t="str">
         <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -587,7 +590,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>04225128211415120</v>
+        <v>04225128211415125</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-15.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,9 +530,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>173_朱丽叶_Juliet_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L12"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -590,7 +598,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>04225128211415125</v>
+        <v>042251282114151254</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-15.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -538,9 +538,170 @@
         <v>4</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>4</v>
+      </c>
+      <c r="C13" t="str">
+        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>172_入梦_Imagine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>5</v>
+      </c>
+      <c r="C18" t="str">
+        <v>267_多头美琴_mikoto spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>156_摩卡/太妃糖_Toffee_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>217_琉璃翠_Dynamic_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F21" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>195_闺蜜_Alter Ego_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>260_凯拉_Kayla_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>259_诺拉_Nora_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>265_星悦宝贝_Moon baby spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>6</v>
+      </c>
+      <c r="C29" t="str">
+        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -598,7 +759,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>042251282114151254</v>
+        <v>0422512821141512541010255555381032455510105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-15.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-15.xlsx
@@ -761,6 +761,9 @@
       <c r="G2" t="str">
         <v>0422512821141512541010255555381032455510105</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
